--- a/Hydrophones/Calibration/ManualRockMovements-2/mov2_calibration_curve_V1.xlsx
+++ b/Hydrophones/Calibration/ManualRockMovements-2/mov2_calibration_curve_V1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\La_Jara\Hydrophones\Calibration\ManualRockMovements-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\Hydrophones\Calibration\ManualRockMovements-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30047936-8644-4EFE-9EEB-9934D7ECC383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD84E64-86E3-4680-84D1-1AF9A9198414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="impact pipe" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
   <si>
     <t>Particle #</t>
   </si>
@@ -127,6 +127,12 @@
   <si>
     <t>Total Raw Max A</t>
   </si>
+  <si>
+    <t>Sieve Size (mm)</t>
+  </si>
+  <si>
+    <t>B-axis (mm)</t>
+  </si>
 </sst>
 </file>
 
@@ -203,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -255,6 +261,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,52 +453,52 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'impact pipe'!$H$2:$H$34</c:f>
+              <c:f>'impact pipe'!$I$2:$I$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>45.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>44.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>42.84</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45</c:v>
+                  <c:v>52.94</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45</c:v>
+                  <c:v>54.05</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45</c:v>
+                  <c:v>54.11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>64</c:v>
+                  <c:v>84.2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>64</c:v>
+                  <c:v>86.98</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>64</c:v>
+                  <c:v>87.98</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>90</c:v>
+                  <c:v>108.42</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>90</c:v>
+                  <c:v>127.22</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>90</c:v>
+                  <c:v>91.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'impact pipe'!$G$2:$G$34</c:f>
+              <c:f>'impact pipe'!$H$2:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -618,52 +633,52 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'impact pipe'!$H$2:$H$34</c:f>
+              <c:f>'impact pipe'!$I$2:$I$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>45.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>44.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>42.84</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45</c:v>
+                  <c:v>52.94</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45</c:v>
+                  <c:v>54.05</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45</c:v>
+                  <c:v>54.11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>64</c:v>
+                  <c:v>84.2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>64</c:v>
+                  <c:v>86.98</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>64</c:v>
+                  <c:v>87.98</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>90</c:v>
+                  <c:v>108.42</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>90</c:v>
+                  <c:v>127.22</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>90</c:v>
+                  <c:v>91.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'impact pipe'!$F$2:$F$34</c:f>
+              <c:f>'impact pipe'!$G$2:$G$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -1012,6 +1027,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1019,7 +1035,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1219,28 +1234,28 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'impact pipe'!$K$2:$K$34</c:f>
+              <c:f>'impact pipe'!$L$2:$L$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>45.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45</c:v>
+                  <c:v>54.11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>64</c:v>
+                  <c:v>87.98</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>90</c:v>
+                  <c:v>127.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'impact pipe'!$J$2:$J$34</c:f>
+              <c:f>'impact pipe'!$K$2:$K$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -1351,28 +1366,28 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'impact pipe'!$K$2:$K$34</c:f>
+              <c:f>'impact pipe'!$L$2:$L$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>45.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45</c:v>
+                  <c:v>54.11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>64</c:v>
+                  <c:v>87.98</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>90</c:v>
+                  <c:v>127.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'impact pipe'!$I$2:$I$34</c:f>
+              <c:f>'impact pipe'!$J$2:$J$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -1658,6 +1673,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1665,7 +1681,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2439,6 +2454,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2446,7 +2462,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3085,6 +3100,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3092,7 +3108,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5355,13 +5370,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -5391,13 +5406,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>676276</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>47626</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -5774,26 +5789,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="1" customWidth="1"/>
-    <col min="7" max="9" width="18.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
+    <col min="8" max="10" width="18.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5801,36 +5817,39 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -5840,38 +5859,41 @@
       <c r="C2" s="4">
         <v>32</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="5">
+        <v>43.74</v>
+      </c>
+      <c r="E2" s="15">
         <v>50</v>
       </c>
-      <c r="E2" s="15">
+      <c r="F2" s="15">
         <v>70</v>
       </c>
-      <c r="F2" s="15">
+      <c r="G2" s="15">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="G2" s="15">
+      <c r="H2" s="15">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H2" s="15">
-        <f>MAX(C2:C3)</f>
-        <v>32</v>
-      </c>
       <c r="I2" s="15">
-        <f>MAX(F2:F7)</f>
-        <v>8.5000000000000006E-3</v>
+        <f>MAX(D2:D3)</f>
+        <v>45.6</v>
       </c>
       <c r="J2" s="15">
         <f>MAX(G2:G7)</f>
-        <v>8.8999999999999999E-3</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="K2" s="15">
         <f>MAX(H2:H7)</f>
-        <v>32</v>
-      </c>
-      <c r="L2" s="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="L2" s="15">
+        <f>MAX(I2:I7)</f>
+        <v>45.6</v>
+      </c>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>2</v>
@@ -5882,7 +5904,9 @@
       <c r="C3" s="7">
         <v>32</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="5">
+        <v>45.6</v>
+      </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -5890,10 +5914,11 @@
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
-      <c r="L3" s="1"/>
+      <c r="L3" s="16"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A34" si="0">A3+1</f>
         <v>3</v>
@@ -5901,32 +5926,35 @@
       <c r="B4" s="1">
         <v>1.2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="18">
         <v>32</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="5">
+        <v>33.14</v>
+      </c>
+      <c r="E4" s="16">
         <v>70</v>
       </c>
-      <c r="E4" s="16">
+      <c r="F4" s="16">
         <v>90</v>
-      </c>
-      <c r="F4" s="16">
-        <v>3.5999999999999999E-3</v>
       </c>
       <c r="G4" s="16">
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="H4" s="16">
-        <f>MAX(C4:C5)</f>
-        <v>32</v>
-      </c>
-      <c r="I4" s="16"/>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="I4" s="16">
+        <f>MAX(D4:D5)</f>
+        <v>44.2</v>
+      </c>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
-      <c r="L4" s="1"/>
+      <c r="L4" s="16"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5937,7 +5965,9 @@
       <c r="C5" s="7">
         <v>32</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="5">
+        <v>44.2</v>
+      </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -5945,10 +5975,11 @@
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
-      <c r="L5" s="1"/>
+      <c r="L5" s="16"/>
       <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5956,32 +5987,35 @@
       <c r="B6" s="1">
         <v>1.3</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="18">
         <v>32</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="5">
+        <v>42.84</v>
+      </c>
+      <c r="E6" s="16">
         <v>90</v>
       </c>
-      <c r="E6" s="16">
+      <c r="F6" s="16">
         <v>100</v>
       </c>
-      <c r="F6" s="16">
+      <c r="G6" s="16">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="G6" s="16">
+      <c r="H6" s="16">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="H6" s="16">
-        <f>MAX(C6:C7)</f>
-        <v>32</v>
-      </c>
-      <c r="I6" s="16"/>
+      <c r="I6" s="16">
+        <f>MAX(D6:D7)</f>
+        <v>42.84</v>
+      </c>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
-      <c r="L6" s="1"/>
+      <c r="L6" s="16"/>
       <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5992,7 +6026,9 @@
       <c r="C7" s="7">
         <v>32</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="5">
+        <v>37.9</v>
+      </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
@@ -6000,10 +6036,11 @@
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
-      <c r="L7" s="1"/>
+      <c r="L7" s="17"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6011,41 +6048,44 @@
       <c r="B8" s="3">
         <v>2.1</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="18">
         <v>32</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="5">
+        <v>43.74</v>
+      </c>
+      <c r="E8" s="15">
         <v>120</v>
       </c>
-      <c r="E8" s="15">
+      <c r="F8" s="15">
         <v>140</v>
       </c>
-      <c r="F8" s="15">
+      <c r="G8" s="15">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="G8" s="15">
+      <c r="H8" s="15">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="H8" s="15">
-        <f>MAX(C8:C9)</f>
-        <v>45</v>
-      </c>
       <c r="I8" s="15">
-        <f>MAX(F8:F13)</f>
-        <v>1.46E-2</v>
+        <f>MAX(D8:D9)</f>
+        <v>52.94</v>
       </c>
       <c r="J8" s="15">
         <f>MAX(G8:G13)</f>
-        <v>1.4800000000000001E-2</v>
+        <v>1.46E-2</v>
       </c>
       <c r="K8" s="15">
         <f>MAX(H8:H13)</f>
-        <v>45</v>
-      </c>
-      <c r="L8" s="1"/>
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="L8" s="15">
+        <f>MAX(I8:I13)</f>
+        <v>54.11</v>
+      </c>
       <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6056,7 +6096,9 @@
       <c r="C9" s="9">
         <v>45</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="9">
+        <v>52.94</v>
+      </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -6064,10 +6106,11 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
-      <c r="L9" s="1"/>
+      <c r="L9" s="16"/>
       <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6075,32 +6118,35 @@
       <c r="B10" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="18">
         <v>32</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="5">
+        <v>45.6</v>
+      </c>
+      <c r="E10" s="16">
         <v>140</v>
       </c>
-      <c r="E10" s="16">
+      <c r="F10" s="16">
         <v>155</v>
       </c>
-      <c r="F10" s="16">
+      <c r="G10" s="16">
         <v>1.46E-2</v>
       </c>
-      <c r="G10" s="16">
+      <c r="H10" s="16">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="H10" s="16">
-        <f>MAX(C10:C11)</f>
-        <v>45</v>
-      </c>
-      <c r="I10" s="16"/>
+      <c r="I10" s="16">
+        <f>MAX(D10:D11)</f>
+        <v>54.05</v>
+      </c>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
-      <c r="L10" s="1"/>
+      <c r="L10" s="16"/>
       <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6111,7 +6157,9 @@
       <c r="C11" s="9">
         <v>45</v>
       </c>
-      <c r="D11" s="16"/>
+      <c r="D11" s="9">
+        <v>54.05</v>
+      </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -6119,10 +6167,11 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
-      <c r="L11" s="1"/>
+      <c r="L11" s="16"/>
       <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6130,32 +6179,35 @@
       <c r="B12" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="18">
         <v>32</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="5">
+        <v>33.14</v>
+      </c>
+      <c r="E12" s="16">
         <v>160</v>
       </c>
-      <c r="E12" s="16">
+      <c r="F12" s="16">
         <v>170</v>
       </c>
-      <c r="F12" s="16">
+      <c r="G12" s="16">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="G12" s="16">
+      <c r="H12" s="16">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="H12" s="16">
-        <f>MAX(C12:C13)</f>
-        <v>45</v>
-      </c>
-      <c r="I12" s="16"/>
+      <c r="I12" s="16">
+        <f>MAX(D12:D13)</f>
+        <v>54.11</v>
+      </c>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
-      <c r="L12" s="1"/>
+      <c r="L12" s="16"/>
       <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6166,7 +6218,9 @@
       <c r="C13" s="9">
         <v>45</v>
       </c>
-      <c r="D13" s="17"/>
+      <c r="D13" s="9">
+        <v>54.11</v>
+      </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
@@ -6174,10 +6228,11 @@
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
-      <c r="L13" s="1"/>
+      <c r="L13" s="17"/>
       <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6185,41 +6240,44 @@
       <c r="B14" s="3">
         <v>3.1</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="18">
         <v>32</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="5">
+        <v>43.74</v>
+      </c>
+      <c r="E14" s="15">
         <v>190</v>
       </c>
-      <c r="E14" s="15">
+      <c r="F14" s="15">
         <v>210</v>
       </c>
-      <c r="F14" s="15">
+      <c r="G14" s="15">
         <v>4.5699999999999998E-2</v>
       </c>
-      <c r="G14" s="15">
+      <c r="H14" s="15">
         <v>4.6300000000000001E-2</v>
       </c>
-      <c r="H14" s="15">
-        <f>MAX(C14:C16)</f>
-        <v>64</v>
-      </c>
       <c r="I14" s="15">
-        <f>MAX(F14:F22)</f>
-        <v>4.5699999999999998E-2</v>
+        <f>MAX(D14:D16)</f>
+        <v>84.2</v>
       </c>
       <c r="J14" s="15">
         <f>MAX(G14:G22)</f>
-        <v>4.6300000000000001E-2</v>
+        <v>4.5699999999999998E-2</v>
       </c>
       <c r="K14" s="15">
         <f>MAX(H14:H22)</f>
-        <v>64</v>
-      </c>
-      <c r="L14" s="1"/>
+        <v>4.6300000000000001E-2</v>
+      </c>
+      <c r="L14" s="15">
+        <f>MAX(I14:I22)</f>
+        <v>87.98</v>
+      </c>
       <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6227,10 +6285,12 @@
       <c r="B15" s="1">
         <v>3.1</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="19">
         <v>45</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="19">
+        <v>52.94</v>
+      </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -6238,10 +6298,11 @@
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
-      <c r="L15" s="1"/>
+      <c r="L15" s="16"/>
       <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6252,7 +6313,9 @@
       <c r="C16" s="11">
         <v>64</v>
       </c>
-      <c r="D16" s="16"/>
+      <c r="D16" s="11">
+        <v>84.2</v>
+      </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -6260,10 +6323,11 @@
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
-      <c r="L16" s="1"/>
+      <c r="L16" s="16"/>
       <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6271,32 +6335,35 @@
       <c r="B17" s="1">
         <v>3.2</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="18">
         <v>32</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="5">
+        <v>45.6</v>
+      </c>
+      <c r="E17" s="16">
         <v>215</v>
       </c>
-      <c r="E17" s="16">
+      <c r="F17" s="16">
         <v>230</v>
       </c>
-      <c r="F17" s="16">
+      <c r="G17" s="16">
         <v>2.5899999999999999E-2</v>
       </c>
-      <c r="G17" s="16">
+      <c r="H17" s="16">
         <v>2.64E-2</v>
       </c>
-      <c r="H17" s="16">
-        <f>MAX(C17:C19)</f>
-        <v>64</v>
-      </c>
-      <c r="I17" s="16"/>
+      <c r="I17" s="16">
+        <f>MAX(D17:D19)</f>
+        <v>86.98</v>
+      </c>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
-      <c r="L17" s="1"/>
+      <c r="L17" s="16"/>
       <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6304,10 +6371,12 @@
       <c r="B18" s="1">
         <v>3.2</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="19">
         <v>45</v>
       </c>
-      <c r="D18" s="16"/>
+      <c r="D18" s="19">
+        <v>54.05</v>
+      </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -6315,10 +6384,11 @@
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
-      <c r="L18" s="1"/>
+      <c r="L18" s="16"/>
       <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6329,7 +6399,9 @@
       <c r="C19" s="11">
         <v>64</v>
       </c>
-      <c r="D19" s="16"/>
+      <c r="D19" s="11">
+        <v>86.98</v>
+      </c>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -6337,10 +6409,11 @@
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
-      <c r="L19" s="1"/>
+      <c r="L19" s="16"/>
       <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -6348,32 +6421,35 @@
       <c r="B20" s="1">
         <v>3.3</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="18">
         <v>32</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="5">
+        <v>44.2</v>
+      </c>
+      <c r="E20" s="16">
         <v>230</v>
       </c>
-      <c r="E20" s="16">
+      <c r="F20" s="16">
         <v>250</v>
       </c>
-      <c r="F20" s="16">
+      <c r="G20" s="16">
         <v>3.1E-2</v>
       </c>
-      <c r="G20" s="16">
+      <c r="H20" s="16">
         <v>3.2199999999999999E-2</v>
       </c>
-      <c r="H20" s="16">
-        <f>MAX(C20:C22)</f>
-        <v>64</v>
-      </c>
-      <c r="I20" s="16"/>
+      <c r="I20" s="16">
+        <f>MAX(D20:D22)</f>
+        <v>87.98</v>
+      </c>
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
-      <c r="L20" s="1"/>
+      <c r="L20" s="16"/>
       <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6381,10 +6457,12 @@
       <c r="B21" s="1">
         <v>3.3</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="19">
         <v>45</v>
       </c>
-      <c r="D21" s="16"/>
+      <c r="D21" s="19">
+        <v>54.11</v>
+      </c>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -6392,10 +6470,11 @@
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
-      <c r="L21" s="1"/>
+      <c r="L21" s="16"/>
       <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -6406,7 +6485,9 @@
       <c r="C22" s="11">
         <v>64</v>
       </c>
-      <c r="D22" s="17"/>
+      <c r="D22" s="11">
+        <v>87.98</v>
+      </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
@@ -6414,10 +6495,11 @@
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
-      <c r="L22" s="1"/>
+      <c r="L22" s="17"/>
       <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -6425,41 +6507,44 @@
       <c r="B23" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="18">
         <v>32</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="5">
+        <v>43.74</v>
+      </c>
+      <c r="E23" s="15">
         <v>270</v>
       </c>
-      <c r="E23" s="15">
+      <c r="F23" s="15">
         <v>285</v>
       </c>
-      <c r="F23" s="15">
+      <c r="G23" s="15">
         <v>3.6200000000000003E-2</v>
       </c>
-      <c r="G23" s="15">
+      <c r="H23" s="15">
         <v>4.1200000000000001E-2</v>
       </c>
-      <c r="H23" s="15">
-        <f>MAX(C23:C26)</f>
-        <v>90</v>
-      </c>
       <c r="I23" s="15">
-        <f>MAX(F23:F34)</f>
-        <v>3.6200000000000003E-2</v>
+        <f>MAX(D23:D26)</f>
+        <v>108.42</v>
       </c>
       <c r="J23" s="15">
         <f>MAX(G23:G34)</f>
-        <v>4.1200000000000001E-2</v>
+        <v>3.6200000000000003E-2</v>
       </c>
       <c r="K23" s="15">
         <f>MAX(H23:H34)</f>
-        <v>90</v>
-      </c>
-      <c r="L23" s="1"/>
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="L23" s="15">
+        <f>MAX(I23:I34)</f>
+        <v>127.22</v>
+      </c>
       <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -6467,10 +6552,12 @@
       <c r="B24" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="19">
         <v>45</v>
       </c>
-      <c r="D24" s="16"/>
+      <c r="D24" s="19">
+        <v>52.94</v>
+      </c>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
@@ -6478,10 +6565,11 @@
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
-      <c r="L24" s="1"/>
+      <c r="L24" s="16"/>
       <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -6489,10 +6577,12 @@
       <c r="B25" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="20">
         <v>64</v>
       </c>
-      <c r="D25" s="16"/>
+      <c r="D25" s="20">
+        <v>84.2</v>
+      </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
@@ -6500,10 +6590,11 @@
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
-      <c r="L25" s="1"/>
+      <c r="L25" s="16"/>
       <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -6514,7 +6605,9 @@
       <c r="C26" s="12">
         <v>90</v>
       </c>
-      <c r="D26" s="16"/>
+      <c r="D26" s="12">
+        <v>108.42</v>
+      </c>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -6522,8 +6615,9 @@
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L26" s="16"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -6531,30 +6625,33 @@
       <c r="B27" s="1">
         <v>4.2</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="18">
         <v>32</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="5">
+        <v>45.6</v>
+      </c>
+      <c r="E27" s="16">
         <v>290</v>
       </c>
-      <c r="E27" s="16">
+      <c r="F27" s="16">
         <v>310</v>
       </c>
-      <c r="F27" s="16">
+      <c r="G27" s="16">
         <v>1.01E-2</v>
       </c>
-      <c r="G27" s="16">
+      <c r="H27" s="16">
         <v>1.15E-2</v>
       </c>
-      <c r="H27" s="16">
-        <f>MAX(C27:C30)</f>
-        <v>90</v>
-      </c>
-      <c r="I27" s="16"/>
+      <c r="I27" s="16">
+        <f>MAX(D27:D30)</f>
+        <v>127.22</v>
+      </c>
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L27" s="16"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -6562,10 +6659,12 @@
       <c r="B28" s="1">
         <v>4.2</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="19">
         <v>45</v>
       </c>
-      <c r="D28" s="16"/>
+      <c r="D28" s="19">
+        <v>54.05</v>
+      </c>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
@@ -6573,8 +6672,9 @@
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L28" s="16"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -6582,10 +6682,12 @@
       <c r="B29" s="1">
         <v>4.2</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="20">
         <v>64</v>
       </c>
-      <c r="D29" s="16"/>
+      <c r="D29" s="20">
+        <v>86.98</v>
+      </c>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
@@ -6593,8 +6695,9 @@
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L29" s="16"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -6605,7 +6708,9 @@
       <c r="C30" s="12">
         <v>90</v>
       </c>
-      <c r="D30" s="16"/>
+      <c r="D30" s="12">
+        <v>127.22</v>
+      </c>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
@@ -6613,8 +6718,9 @@
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L30" s="16"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6622,30 +6728,33 @@
       <c r="B31" s="1">
         <v>4.3</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="18">
         <v>32</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="5">
+        <v>42.84</v>
+      </c>
+      <c r="E31" s="16">
         <v>310</v>
       </c>
-      <c r="E31" s="16">
+      <c r="F31" s="16">
         <v>330</v>
       </c>
-      <c r="F31" s="16">
+      <c r="G31" s="16">
         <v>2.93E-2</v>
       </c>
-      <c r="G31" s="16">
+      <c r="H31" s="16">
         <v>3.0499999999999999E-2</v>
       </c>
-      <c r="H31" s="16">
-        <f>MAX(C31:C34)</f>
-        <v>90</v>
-      </c>
-      <c r="I31" s="16"/>
+      <c r="I31" s="16">
+        <f>MAX(D31:D34)</f>
+        <v>91.54</v>
+      </c>
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L31" s="16"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -6653,10 +6762,12 @@
       <c r="B32" s="1">
         <v>4.3</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="19">
         <v>45</v>
       </c>
-      <c r="D32" s="16"/>
+      <c r="D32" s="19">
+        <v>54.11</v>
+      </c>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
@@ -6664,8 +6775,9 @@
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L32" s="16"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -6673,10 +6785,12 @@
       <c r="B33" s="1">
         <v>4.3</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="20">
         <v>64</v>
       </c>
-      <c r="D33" s="16"/>
+      <c r="D33" s="20">
+        <v>87.98</v>
+      </c>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
@@ -6684,8 +6798,9 @@
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L33" s="16"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -6696,7 +6811,9 @@
       <c r="C34" s="12">
         <v>90</v>
       </c>
-      <c r="D34" s="17"/>
+      <c r="D34" s="12">
+        <v>91.54</v>
+      </c>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
@@ -6704,270 +6821,280 @@
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L34" s="17"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="2">
         <v>0.60364583333333333</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="2"/>
+      <c r="E38" s="1">
         <v>0</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1" t="s">
+      <c r="L38" s="1"/>
+      <c r="M38" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="2">
         <v>0.60420138888888886</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="2"/>
+      <c r="E39" s="2">
         <f>C39-$C$38</f>
         <v>5.5555555555553138E-4</v>
       </c>
-      <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="1">
+      <c r="G39" s="2"/>
+      <c r="H39" s="1">
         <v>48</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L39" s="2">
-        <f>D40-D39</f>
+      <c r="M39" s="2">
+        <f>E40-E39</f>
         <v>7.2916666666666963E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C40" s="2">
         <v>0.60493055555555553</v>
       </c>
-      <c r="D40" s="2">
-        <f t="shared" ref="D40:D45" si="1">C40-$C$38</f>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2">
+        <f t="shared" ref="E40:E45" si="1">C40-$C$38</f>
         <v>1.284722222222201E-3</v>
       </c>
-      <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="1">
+      <c r="G40" s="2"/>
+      <c r="H40" s="1">
         <f>51+60</f>
         <v>111</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="L40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L40" s="2">
-        <f>D42-D41</f>
+      <c r="M40" s="2">
+        <f>E42-E41</f>
         <v>7.5231481481474738E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C41" s="2">
         <v>0.60502314814814817</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="2"/>
+      <c r="E41" s="2">
         <f t="shared" si="1"/>
         <v>1.3773148148148451E-3</v>
       </c>
-      <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="1">
+      <c r="G41" s="2"/>
+      <c r="H41" s="1">
         <f>59+60</f>
         <v>119</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="L41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L41" s="2">
-        <f>D44-D43</f>
+      <c r="M41" s="2">
+        <f>E44-E43</f>
         <v>7.6388888888889728E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C42" s="2">
         <v>0.60577546296296292</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="2"/>
+      <c r="E42" s="2">
         <f t="shared" si="1"/>
         <v>2.1296296296295925E-3</v>
       </c>
-      <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="1">
+      <c r="G42" s="2"/>
+      <c r="H42" s="1">
         <f>4+60*3</f>
         <v>184</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="L42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L42" s="2">
-        <f>D46-D45</f>
+      <c r="M42" s="2">
+        <f>E46-E45</f>
         <v>1.0763888888889461E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="2">
         <v>0.60584490740740737</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="2"/>
+      <c r="E43" s="2">
         <f t="shared" si="1"/>
         <v>2.1990740740740478E-3</v>
       </c>
-      <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="1">
+      <c r="G43" s="2"/>
+      <c r="H43" s="1">
         <f>10+60*3</f>
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="2">
         <v>0.60660879629629627</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="2"/>
+      <c r="E44" s="2">
         <f t="shared" si="1"/>
         <v>2.962962962962945E-3</v>
       </c>
-      <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="1">
+      <c r="G44" s="2"/>
+      <c r="H44" s="1">
         <f>16+60*4</f>
         <v>256</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C45" s="2">
         <v>0.60657407407407404</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="2"/>
+      <c r="E45" s="2">
         <f t="shared" si="1"/>
         <v>2.9282407407407174E-3</v>
       </c>
-      <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="1">
+      <c r="G45" s="2"/>
+      <c r="H45" s="1">
         <f>13+60*4</f>
         <v>253</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C46" s="2">
         <v>0.60765046296296299</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="2"/>
+      <c r="E46" s="2">
         <f>C46-$C$38</f>
         <v>4.0046296296296635E-3</v>
       </c>
-      <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="1">
+      <c r="G46" s="2"/>
+      <c r="H46" s="1">
         <f>46+60*5</f>
         <v>346</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="K2:K7"/>
-    <mergeCell ref="K8:K13"/>
-    <mergeCell ref="K14:K22"/>
-    <mergeCell ref="K23:K34"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="J2:J7"/>
-    <mergeCell ref="I2:I7"/>
-    <mergeCell ref="H31:H34"/>
-    <mergeCell ref="J14:J22"/>
-    <mergeCell ref="J23:J34"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="I14:I22"/>
-    <mergeCell ref="I23:I34"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="J8:J13"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
     <mergeCell ref="G10:G11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="I8:I13"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
+    <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="K8:K13"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="H31:H34"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="K2:K7"/>
+    <mergeCell ref="J2:J7"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L2:L7"/>
+    <mergeCell ref="L8:L13"/>
+    <mergeCell ref="L14:L22"/>
+    <mergeCell ref="L23:L34"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I31:I34"/>
+    <mergeCell ref="K14:K22"/>
+    <mergeCell ref="K23:K34"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J22"/>
+    <mergeCell ref="J23:J34"/>
+    <mergeCell ref="I17:I19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6978,7 +7105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3CE5A8-CC96-493E-B1FD-129618458764}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -8098,6 +8225,62 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="K23:K34"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="I23:I34"/>
+    <mergeCell ref="K14:K22"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="H31:H34"/>
+    <mergeCell ref="J14:J22"/>
+    <mergeCell ref="J23:J34"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I7"/>
+    <mergeCell ref="K8:K13"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="J2:J7"/>
@@ -8114,62 +8297,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I7"/>
-    <mergeCell ref="K8:K13"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="I14:I22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="J8:J13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="H31:H34"/>
-    <mergeCell ref="J14:J22"/>
-    <mergeCell ref="K14:K22"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="J23:J34"/>
-    <mergeCell ref="K23:K34"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="I23:I34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
